--- a/biology/Médecine/Chromosome_16_humain/Chromosome_16_humain.xlsx
+++ b/biology/Médecine/Chromosome_16_humain/Chromosome_16_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome 16 est un des 24 chromosomes humains. C'est l'un des 22 autosomes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome 16</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 88 827 254
 Nombre de gènes : 957
@@ -545,11 +559,13 @@
           <t>Anomalies chromosomiques décrites au niveau du chromosome 16</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Microdélétion au niveau de 16p11.2 c'est-à-dire une mutation caractérisée par une perte de matériel génétique. Ce qui provoque chez des patients atteints de cette mutation un retard de développement, des troubles autistiques et un déficit intellectuel.
-La trisomie 16 est la plus fréquemment rencontrée, on estime qu'elle toucherait 1 à 1,5% des grossesses[1], la forme homogène n'est pas viable.
-La trisomie 16 en mosaïque est une forme rare, de phénotype variable[2].
+La trisomie 16 est la plus fréquemment rencontrée, on estime qu'elle toucherait 1 à 1,5% des grossesses, la forme homogène n'est pas viable.
+La trisomie 16 en mosaïque est une forme rare, de phénotype variable.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Gènes localisés sur le chromosome 16</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>gène MC1R: détermine la pigmentation de la peau et des cheveux
 CIITA: code le transactivateur de la classe II du complexe majeur d'histocompatibilité.</t>
@@ -609,7 +627,9 @@
           <t>Maladies localisées sur le chromosome 16</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome 16 sont :
@@ -642,6 +662,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
